--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.9991</v>
+        <v>16.0434</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.57350000000001</v>
+        <v>-21.59440000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.4465</v>
+        <v>16.43170000000001</v>
       </c>
     </row>
     <row r="15">
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.23789999999999</v>
+        <v>16.367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.68399999999998</v>
+        <v>-21.78429999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -967,12 +967,12 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.4306</v>
+        <v>16.4695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1936</v>
+        <v>-21.2518</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.40160000000001</v>
+        <v>16.4158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.0735</v>
+        <v>-20.3038</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1069,12 +1069,12 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.61640000000002</v>
+        <v>16.65820000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.16109999999999</v>
+        <v>-19.4251</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1205,12 +1205,12 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.61949999999999</v>
+        <v>16.5457</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.83610000000001</v>
+        <v>-21.81180000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.16390000000001</v>
+        <v>17.1962</v>
       </c>
     </row>
     <row r="53">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.58199999999998</v>
+        <v>-21.60339999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.52400000000001</v>
+        <v>-22.5005</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.15350000000001</v>
+        <v>-22.2113</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.62070000000001</v>
+        <v>16.65060000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.39519999999998</v>
+        <v>-21.43699999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.54179999999998</v>
+        <v>-21.57319999999996</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.70189999999999</v>
+        <v>-21.82079999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.1957</v>
+        <v>16.41189999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.84229999999999</v>
+        <v>-21.9218</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.4259</v>
+        <v>16.4559</v>
       </c>
     </row>
     <row r="84">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.0077</v>
+        <v>-22.02470000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.44100000000001</v>
+        <v>-21.40880000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.28309999999999</v>
+        <v>-21.334</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.03709999999999</v>
+        <v>-19.97099999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.38039999999999</v>
+        <v>16.302</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.6939</v>
+        <v>16.71609999999999</v>
       </c>
     </row>
   </sheetData>
